--- a/deployment/result_non_churn.xlsx
+++ b/deployment/result_non_churn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,45 +497,1321 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>48</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>809</v>
+      </c>
+      <c r="J2" t="n">
+        <v>30</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>953</v>
+      </c>
+      <c r="J3" t="n">
+        <v>30</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>17</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>594</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>48</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Premium</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>850</v>
+      </c>
+      <c r="J5" t="n">
+        <v>29</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Premium</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>891</v>
+      </c>
+      <c r="J6" t="n">
+        <v>22</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>867</v>
+      </c>
+      <c r="J7" t="n">
+        <v>24</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>43</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>756</v>
+      </c>
+      <c r="J8" t="n">
+        <v>29</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>55</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>629</v>
+      </c>
+      <c r="J9" t="n">
         <v>25</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Premium</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>520</v>
+      </c>
+      <c r="J10" t="n">
+        <v>16</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>44</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>42</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>861</v>
+      </c>
+      <c r="J11" t="n">
+        <v>24</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>23</v>
+      </c>
+      <c r="D12" t="n">
+        <v>23</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Premium</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>742</v>
+      </c>
+      <c r="J12" t="n">
+        <v>24</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>24</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>23</v>
+      </c>
+      <c r="D13" t="n">
+        <v>18</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>795</v>
+      </c>
+      <c r="J13" t="n">
+        <v>22</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>30</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>26</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Premium</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>517</v>
+      </c>
+      <c r="J14" t="n">
+        <v>10</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Premium</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>787</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>40</v>
+      </c>
+      <c r="D16" t="n">
+        <v>21</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Premium</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>691</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>46</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>13</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Premium</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>945</v>
+      </c>
+      <c r="J17" t="n">
+        <v>13</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>40</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
         <v>12</v>
       </c>
-      <c r="D2" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Premium</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>678</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>40</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>38</v>
+      </c>
+      <c r="D19" t="n">
+        <v>28</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>678</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>48</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>38</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>757</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>47</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>16</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Premium</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>928</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>43</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>16</v>
+      </c>
+      <c r="D22" t="n">
+        <v>25</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>17</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>759</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>40</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>47</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Premium</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>603</v>
+      </c>
+      <c r="J23" t="n">
+        <v>7</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>30</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>33</v>
+      </c>
+      <c r="D24" t="n">
+        <v>11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>864</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>40</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>42</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>19</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Premium</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>696</v>
+      </c>
+      <c r="J25" t="n">
         <v>15</v>
       </c>
-      <c r="E2" t="n">
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>49</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>18</v>
+      </c>
+      <c r="D26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Premium</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>642</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>20</v>
+      </c>
+      <c r="D27" t="n">
+        <v>29</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>580</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>42</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>58</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>733</v>
+      </c>
+      <c r="J28" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>32</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>35</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Premium</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>951</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>13</v>
+      </c>
+      <c r="D30" t="n">
+        <v>17</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>10</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Premium</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Annual</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>500</v>
-      </c>
-      <c r="J2" t="n">
-        <v>7</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="I30" t="n">
+        <v>919</v>
+      </c>
+      <c r="J30" t="n">
+        <v>11</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>8</v>
+      </c>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>13</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Premium</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>582</v>
+      </c>
+      <c r="J31" t="n">
+        <v>6</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>1</v>
       </c>
     </row>
